--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_296.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_296.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2462006079027355</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1514726507713885</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[['E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:00:25.850181', '0:00:33.826235')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:32.640577', '0:00:45.655361')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04224137931034483</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08749999999999999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['C#:min', 'F#:7/A#', 'B:maj'], ['C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(50.13, 53.91)]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:31.340000', '0:00:36.620000'), ('0:00:00.480000', '0:00:08.480000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:37.200000', '0:00:39.900000'), ('0:03:56.400000', '0:03:59.980000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04858156028368794</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['A', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(55.18, 62.06)]</t>
+          <t>[['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:03.101913', '0:00:07.276092')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:33.617981', '0:02:41.988775')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2598235765838011</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(129.38, 134.74)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:37.980000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:29', '0:03:02.720000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['C:7', 'F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['E:7', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58)]</t>
+          <t>[('0:00:40.340000', '0:00:43.300000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:03.509000', '0:00:13.840000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08233638282899367</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Bb:7', 'Eb:7', 'Ab:maj']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053), (37.633, 41.753)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396), (118.584331, 127.280204)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1509803921568627</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db', 'Eb', 'Ab']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D', 'G']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.18297, 24.631133)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.608639, 25.606371)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07111772789738892</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'G', 'G', 'C:7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb', 'Eb:7', 'Eb:7']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.01, 11.55)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.34, 42.1)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_69</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09226467847157502</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Ab'], ['Eb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb'], ['Bb:7', 'Bb:7', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27), (86.64, 90.6), (10.94, 14.21)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (16.13, 24.98), (39.16, 45.59)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.351768, 40.095623)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.759569, 29.414444)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2064564564564565</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F', 'C/3']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(60.761383, 72.16238)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(76.585782, 79.023877)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:57.920000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1819852941176471</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.070127, 13.723731)]</t>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.86, 5.14)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_199</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1431623931623932</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(47.21102, 53.747437)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(3.028463, 6.708825)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
